--- a/Code/Results/Cases/Case_0_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_246/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.09714893133101299</v>
+        <v>0.2039992849870629</v>
       </c>
       <c r="D2">
-        <v>0.03273831407427963</v>
+        <v>0.03013948496803209</v>
       </c>
       <c r="E2">
-        <v>0.5527857104867095</v>
+        <v>0.2041107199060548</v>
       </c>
       <c r="F2">
-        <v>0.6051096004310139</v>
+        <v>0.8009902855880071</v>
       </c>
       <c r="G2">
-        <v>0.0007233116583095056</v>
+        <v>0.002435002248668664</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.422470484992374</v>
+        <v>0.4352601544044887</v>
       </c>
       <c r="M2">
-        <v>34.10340968226745</v>
+        <v>10.94388192429562</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>1.686386728457734</v>
+        <v>2.777273334386024</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.07034293775194556</v>
+        <v>0.2133631626660701</v>
       </c>
       <c r="D3">
-        <v>0.02662295749924226</v>
+        <v>0.03027348549026243</v>
       </c>
       <c r="E3">
-        <v>0.456066650369074</v>
+        <v>0.1898001546332324</v>
       </c>
       <c r="F3">
-        <v>0.4881338360869947</v>
+        <v>0.8205966484033524</v>
       </c>
       <c r="G3">
-        <v>0.000737143346583987</v>
+        <v>0.002441226194074987</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.19038314875931</v>
+        <v>0.3874367492097406</v>
       </c>
       <c r="M3">
-        <v>28.97995335910872</v>
+        <v>9.62274159506353</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>1.325548050797977</v>
+        <v>2.871687663754955</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0588817406993698</v>
+        <v>0.2195782688237529</v>
       </c>
       <c r="D4">
-        <v>0.02352107837771555</v>
+        <v>0.03040146940685418</v>
       </c>
       <c r="E4">
-        <v>0.4027461859543422</v>
+        <v>0.1812430611963762</v>
       </c>
       <c r="F4">
-        <v>0.4293581623404847</v>
+        <v>0.8342316218690158</v>
       </c>
       <c r="G4">
-        <v>0.0007454540811094693</v>
+        <v>0.00244520908604774</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.058646203727534</v>
+        <v>0.3582604089315282</v>
       </c>
       <c r="M4">
-        <v>25.98830151632842</v>
+        <v>8.808708495625979</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.152764974582055</v>
+        <v>2.935545167186689</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.05518873892386722</v>
+        <v>0.2222258444194836</v>
       </c>
       <c r="D5">
-        <v>0.0223829629150778</v>
+        <v>0.03046488571516193</v>
       </c>
       <c r="E5">
-        <v>0.3821733656368878</v>
+        <v>0.177811636452752</v>
       </c>
       <c r="F5">
-        <v>0.4080389756950566</v>
+        <v>0.8401823622189042</v>
       </c>
       <c r="G5">
-        <v>0.0007488160343624428</v>
+        <v>0.002446872963367254</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.006994982732863</v>
+        <v>0.3464147563801134</v>
       </c>
       <c r="M5">
-        <v>24.798034469024</v>
+        <v>8.476230920908563</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.092170453990548</v>
+        <v>2.963021456590127</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.05462790353624314</v>
+        <v>0.222672346454786</v>
       </c>
       <c r="D6">
-        <v>0.02220067497960443</v>
+        <v>0.03047608957329118</v>
       </c>
       <c r="E6">
-        <v>0.3788182695364952</v>
+        <v>0.1772451542262772</v>
       </c>
       <c r="F6">
-        <v>0.4046421216278233</v>
+        <v>0.8411940915783092</v>
       </c>
       <c r="G6">
-        <v>0.0007493732985823787</v>
+        <v>0.00244715172101112</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9985250340171774</v>
+        <v>0.3444503609382537</v>
       </c>
       <c r="M6">
-        <v>24.60189610969923</v>
+        <v>8.420976854278535</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.082642120083477</v>
+        <v>2.967670914928107</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.05882828743773416</v>
+        <v>0.2196135127385332</v>
       </c>
       <c r="D7">
-        <v>0.02350526187978019</v>
+        <v>0.03040227935974826</v>
       </c>
       <c r="E7">
-        <v>0.4024644639035131</v>
+        <v>0.1811965610982469</v>
       </c>
       <c r="F7">
-        <v>0.4290607194958866</v>
+        <v>0.8343102881222748</v>
       </c>
       <c r="G7">
-        <v>0.0007454994980341835</v>
+        <v>0.002445231360027623</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.057942135355205</v>
+        <v>0.3581004804090639</v>
       </c>
       <c r="M7">
-        <v>25.97214340224559</v>
+        <v>8.80422767821608</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.151910794108488</v>
+        <v>2.935909870153353</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.08667102492096035</v>
+        <v>0.2071299489273457</v>
       </c>
       <c r="D8">
-        <v>0.03046705082528689</v>
+        <v>0.03017605889399277</v>
       </c>
       <c r="E8">
-        <v>0.5179159597727221</v>
+        <v>0.1991274710974551</v>
       </c>
       <c r="F8">
-        <v>0.5616159366123199</v>
+        <v>0.8074148935545153</v>
       </c>
       <c r="G8">
-        <v>0.0007281333318509499</v>
+        <v>0.002437114921382603</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.339734196247576</v>
+        <v>0.4187297282005602</v>
       </c>
       <c r="M8">
-        <v>32.29786122217956</v>
+        <v>10.48891995815609</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>1.550135942203184</v>
+        <v>2.808589618100143</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2009607204583048</v>
+        <v>0.1864471037822852</v>
       </c>
       <c r="D9">
-        <v>0.05205412066528226</v>
+        <v>0.0301061488650447</v>
       </c>
       <c r="E9">
-        <v>0.8190161712427013</v>
+        <v>0.2362147887839399</v>
       </c>
       <c r="F9">
-        <v>0.9694676149636621</v>
+        <v>0.7676635705779802</v>
       </c>
       <c r="G9">
-        <v>0.0006911738667888513</v>
+        <v>0.002422467520876508</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>2.02615672312524</v>
+        <v>0.5392741153589782</v>
       </c>
       <c r="M9">
-        <v>46.62359929584255</v>
+        <v>13.77205026641826</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.886510769820546</v>
+        <v>2.606821435530009</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.3782932175853873</v>
+        <v>0.1737126929135542</v>
       </c>
       <c r="D10">
-        <v>0.08058776878812779</v>
+        <v>0.03029882609312295</v>
       </c>
       <c r="E10">
-        <v>1.161527393613113</v>
+        <v>0.2647913531924075</v>
       </c>
       <c r="F10">
-        <v>1.477783411834309</v>
+        <v>0.7468281424850289</v>
       </c>
       <c r="G10">
-        <v>0.000658270304327077</v>
+        <v>0.002412462915595785</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.749685326253797</v>
+        <v>0.6291002719380572</v>
       </c>
       <c r="M10">
-        <v>60.25015199487365</v>
+        <v>16.17507416934058</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>4.660071872374346</v>
+        <v>2.489459369112552</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.5195974287845146</v>
+        <v>0.1684873252146843</v>
       </c>
       <c r="D11">
-        <v>0.1018593017918334</v>
+        <v>0.03044327573518046</v>
       </c>
       <c r="E11">
-        <v>1.397525313644792</v>
+        <v>0.2781170592833462</v>
       </c>
       <c r="F11">
-        <v>1.832624184336652</v>
+        <v>0.7392669193691432</v>
       </c>
       <c r="G11">
-        <v>0.0006393593724664345</v>
+        <v>0.00240807211309578</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>3.224025618512371</v>
+        <v>0.6703011496467184</v>
       </c>
       <c r="M11">
-        <v>68.45064482322869</v>
+        <v>17.26716896728499</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>5.94061111670311</v>
+        <v>2.443143952223352</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.594448461173414</v>
+        <v>0.166593151532922</v>
       </c>
       <c r="D12">
-        <v>0.1128339145031703</v>
+        <v>0.03050647773449811</v>
       </c>
       <c r="E12">
-        <v>1.515321916211356</v>
+        <v>0.2832132828241214</v>
       </c>
       <c r="F12">
-        <v>2.008142159258952</v>
+        <v>0.7366878144456166</v>
       </c>
       <c r="G12">
-        <v>0.000630811510293457</v>
+        <v>0.002406432177266993</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>3.45512716501969</v>
+        <v>0.6859569797923086</v>
       </c>
       <c r="M12">
-        <v>72.25214474990946</v>
+        <v>17.68064036012788</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>6.584225826530542</v>
+        <v>2.426654246453353</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.5768466610496858</v>
+        <v>0.1669972867256462</v>
       </c>
       <c r="D13">
-        <v>0.1102678098510097</v>
+        <v>0.03049248239945257</v>
       </c>
       <c r="E13">
-        <v>1.487974107051222</v>
+        <v>0.2821134403621528</v>
       </c>
       <c r="F13">
-        <v>1.967546615965858</v>
+        <v>0.7372304945221941</v>
       </c>
       <c r="G13">
-        <v>0.0006327482816724556</v>
+        <v>0.002406784359039974</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>3.401773420413434</v>
+        <v>0.6825827288999733</v>
       </c>
       <c r="M13">
-        <v>71.38536491361651</v>
+        <v>17.59159432188426</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>6.434806826231522</v>
+        <v>2.430158432137517</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.5251585155942067</v>
+        <v>0.1683297784115894</v>
       </c>
       <c r="D14">
-        <v>0.1026805579174521</v>
+        <v>0.03044830302690116</v>
       </c>
       <c r="E14">
-        <v>1.406419799773538</v>
+        <v>0.2785353063080436</v>
       </c>
       <c r="F14">
-        <v>1.845931914906714</v>
+        <v>0.7390489901932398</v>
       </c>
       <c r="G14">
-        <v>0.0006386948058090258</v>
+        <v>0.002407936739853303</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>3.241595876420945</v>
+        <v>0.6715880513109767</v>
       </c>
       <c r="M14">
-        <v>68.74400294157579</v>
+        <v>17.30118670957518</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>5.989186629495066</v>
+        <v>2.44176612671032</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4970583236373827</v>
+        <v>0.1691570696538349</v>
       </c>
       <c r="D15">
-        <v>0.09852007430450271</v>
+        <v>0.03042235934307769</v>
       </c>
       <c r="E15">
-        <v>1.361214730279336</v>
+        <v>0.276350213944923</v>
       </c>
       <c r="F15">
-        <v>1.778221194853003</v>
+        <v>0.7402001345816984</v>
       </c>
       <c r="G15">
-        <v>0.0006421063595881401</v>
+        <v>0.002408645562559739</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>3.152082150989457</v>
+        <v>0.6648606832648056</v>
       </c>
       <c r="M15">
-        <v>67.24188263867381</v>
+        <v>17.12329528124087</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>5.742424131571283</v>
+        <v>2.449013736126034</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.3709428647161417</v>
+        <v>0.1740658528458852</v>
       </c>
       <c r="D16">
-        <v>0.0794554590736567</v>
+        <v>0.03029055708368844</v>
       </c>
       <c r="E16">
-        <v>1.148605595726053</v>
+        <v>0.2639273156363799</v>
       </c>
       <c r="F16">
-        <v>1.458331542226702</v>
+        <v>0.7473615825069686</v>
       </c>
       <c r="G16">
-        <v>0.0006593833065001392</v>
+        <v>0.002412753066694756</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.723215542799153</v>
+        <v>0.6264149512862218</v>
       </c>
       <c r="M16">
-        <v>59.77611155576835</v>
+        <v>16.10368787223479</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>4.590755794257774</v>
+        <v>2.49263122242067</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.3133807824144839</v>
+        <v>0.1772246579312196</v>
       </c>
       <c r="D17">
-        <v>0.07046982603831964</v>
+        <v>0.03022448052612248</v>
       </c>
       <c r="E17">
-        <v>1.044425062906612</v>
+        <v>0.2563919853904082</v>
       </c>
       <c r="F17">
-        <v>1.301880744618046</v>
+        <v>0.7522518588908014</v>
       </c>
       <c r="G17">
-        <v>0.0006686903890504457</v>
+        <v>0.00241531375131959</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.507653394833227</v>
+        <v>0.6029200694904944</v>
       </c>
       <c r="M17">
-        <v>55.84836198575528</v>
+        <v>15.47796999089621</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>4.037004294708396</v>
+        <v>2.521223131531883</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2849723349732258</v>
+        <v>0.1790947590317273</v>
       </c>
       <c r="D18">
-        <v>0.06594404997343162</v>
+        <v>0.03019180019878576</v>
       </c>
       <c r="E18">
-        <v>0.9907026610243719</v>
+        <v>0.2520883530783209</v>
       </c>
       <c r="F18">
-        <v>1.221660696984159</v>
+        <v>0.7552445240276882</v>
       </c>
       <c r="G18">
-        <v>0.0006737378924792092</v>
+        <v>0.002416801699614188</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.394894035046121</v>
+        <v>0.5894379575112509</v>
       </c>
       <c r="M18">
-        <v>53.74504663101379</v>
+        <v>15.11796992133003</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>3.755852820052155</v>
+        <v>2.538332250869217</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2760108113077635</v>
+        <v>0.1797369994963702</v>
       </c>
       <c r="D19">
-        <v>0.06450145941870034</v>
+        <v>0.03018163991652756</v>
       </c>
       <c r="E19">
-        <v>0.973377642108062</v>
+        <v>0.2506363603193194</v>
       </c>
       <c r="F19">
-        <v>1.195888715895379</v>
+        <v>0.7562884323311607</v>
       </c>
       <c r="G19">
-        <v>0.0006754043389830101</v>
+        <v>0.002417308097231744</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.358280889714166</v>
+        <v>0.5848784057665455</v>
       </c>
       <c r="M19">
-        <v>53.05474632604722</v>
+        <v>14.99606024114087</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>3.665962465460694</v>
+        <v>2.544238158334679</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.3189824144236084</v>
+        <v>0.1768828666826607</v>
       </c>
       <c r="D20">
-        <v>0.07135443892464366</v>
+        <v>0.03023096099195755</v>
       </c>
       <c r="E20">
-        <v>1.054820847338164</v>
+        <v>0.2571909561466441</v>
       </c>
       <c r="F20">
-        <v>1.317448795857601</v>
+        <v>0.7517125998855789</v>
       </c>
       <c r="G20">
-        <v>0.0006677338865368576</v>
+        <v>0.002415039600271071</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.529342848463614</v>
+        <v>0.60541784033623</v>
       </c>
       <c r="M20">
-        <v>56.24905728764054</v>
+        <v>15.54458897165904</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>4.091794283502082</v>
+        <v>2.518110544372632</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.539526796433158</v>
+        <v>0.1679360743027445</v>
       </c>
       <c r="D21">
-        <v>0.1047978353416426</v>
+        <v>0.03046104607875577</v>
       </c>
       <c r="E21">
-        <v>1.429288151832296</v>
+        <v>0.2795849058588686</v>
       </c>
       <c r="F21">
-        <v>1.880109966373951</v>
+        <v>0.7385070727795551</v>
       </c>
       <c r="G21">
-        <v>0.0006370008835413467</v>
+        <v>0.002407597642144289</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>3.286677259062003</v>
+        <v>0.6748159463914192</v>
       </c>
       <c r="M21">
-        <v>69.49339868672951</v>
+        <v>17.38648807711735</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>6.114113132490786</v>
+        <v>2.438327939754686</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.8709119610321068</v>
+        <v>0.1625831627753627</v>
       </c>
       <c r="D22">
-        <v>0.1522400288776353</v>
+        <v>0.03066114509451268</v>
       </c>
       <c r="E22">
-        <v>1.924246500829994</v>
+        <v>0.294514100796448</v>
       </c>
       <c r="F22">
-        <v>2.59936171752932</v>
+        <v>0.7315369476222884</v>
       </c>
       <c r="G22">
-        <v>0.000604836552586363</v>
+        <v>0.002402866447315217</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>4.234725761354866</v>
+        <v>0.720488826590298</v>
       </c>
       <c r="M22">
-        <v>84.21588752960417</v>
+        <v>18.58983955332758</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.795586109297574</v>
+        <v>2.392314787228486</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.653634742627645</v>
+        <v>0.1653938757212501</v>
       </c>
       <c r="D23">
-        <v>0.1214038620331834</v>
+        <v>0.03054968327973739</v>
       </c>
       <c r="E23">
-        <v>1.605892370402337</v>
+        <v>0.2865181545308957</v>
       </c>
       <c r="F23">
-        <v>2.141797167809273</v>
+        <v>0.7351022316056088</v>
       </c>
       <c r="G23">
-        <v>0.0006245913136496215</v>
+        <v>0.002405379545398211</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>3.630620527504391</v>
+        <v>0.6960814799967352</v>
       </c>
       <c r="M23">
-        <v>75.05826178989486</v>
+        <v>17.9476032254251</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>7.078452170038446</v>
+        <v>2.416301296379231</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.3164358639787039</v>
+        <v>0.177037222338555</v>
       </c>
       <c r="D24">
-        <v>0.07095258535140658</v>
+        <v>0.03022801466502045</v>
       </c>
       <c r="E24">
-        <v>1.05010240811945</v>
+        <v>0.2568296528429101</v>
       </c>
       <c r="F24">
-        <v>1.310381208787902</v>
+        <v>0.7519558351881983</v>
       </c>
       <c r="G24">
-        <v>0.0006681672304833759</v>
+        <v>0.002415163494794522</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.519503558771703</v>
+        <v>0.604288519389371</v>
       </c>
       <c r="M24">
-        <v>56.06743835352518</v>
+        <v>15.51447136584699</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>4.066911786655055</v>
+        <v>2.519515656632478</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1599158243706995</v>
+        <v>0.1916210728167584</v>
       </c>
       <c r="D25">
-        <v>0.04485075316878095</v>
+        <v>0.03008343431472582</v>
       </c>
       <c r="E25">
-        <v>0.7246028675212273</v>
+        <v>0.2259602292246967</v>
       </c>
       <c r="F25">
-        <v>0.835215693891854</v>
+        <v>0.7769806611570615</v>
       </c>
       <c r="G25">
-        <v>0.0007017513496971739</v>
+        <v>0.002426295880433836</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.817106426518819</v>
+        <v>0.5064617793764512</v>
       </c>
       <c r="M25">
-        <v>42.41362071447747</v>
+        <v>12.88574302349832</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.43475669889736</v>
+        <v>2.656105810697142</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_246/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_246/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2039992849870629</v>
+        <v>0.09714893133103431</v>
       </c>
       <c r="D2">
-        <v>0.03013948496803209</v>
+        <v>0.03273831407440042</v>
       </c>
       <c r="E2">
-        <v>0.2041107199060548</v>
+        <v>0.5527857104867238</v>
       </c>
       <c r="F2">
-        <v>0.8009902855880071</v>
+        <v>0.6051096004310281</v>
       </c>
       <c r="G2">
-        <v>0.002435002248668664</v>
+        <v>0.0007233116583565614</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.4352601544044887</v>
+        <v>1.422470484992431</v>
       </c>
       <c r="M2">
-        <v>10.94388192429562</v>
+        <v>34.1034096822674</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.777273334386024</v>
+        <v>1.686386728457791</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,19 +471,19 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.2133631626660701</v>
+        <v>0.07034293775194556</v>
       </c>
       <c r="D3">
-        <v>0.03027348549026243</v>
+        <v>0.02662295749946963</v>
       </c>
       <c r="E3">
-        <v>0.1898001546332324</v>
+        <v>0.4560666503690669</v>
       </c>
       <c r="F3">
-        <v>0.8205966484033524</v>
+        <v>0.4881338360870018</v>
       </c>
       <c r="G3">
-        <v>0.002441226194074987</v>
+        <v>0.0007371433465780013</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3874367492097406</v>
+        <v>1.19038314875931</v>
       </c>
       <c r="M3">
-        <v>9.62274159506353</v>
+        <v>28.97995335910861</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.871687663754955</v>
+        <v>1.32554805079792</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,19 +518,19 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.2195782688237529</v>
+        <v>0.05888174069929875</v>
       </c>
       <c r="D4">
-        <v>0.03040146940685418</v>
+        <v>0.02352107837749529</v>
       </c>
       <c r="E4">
-        <v>0.1812430611963762</v>
+        <v>0.4027461859543351</v>
       </c>
       <c r="F4">
-        <v>0.8342316218690158</v>
+        <v>0.4293581623404847</v>
       </c>
       <c r="G4">
-        <v>0.00244520908604774</v>
+        <v>0.0007454540810533116</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3582604089315282</v>
+        <v>1.058646203727534</v>
       </c>
       <c r="M4">
-        <v>8.808708495625979</v>
+        <v>25.98830151632842</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>2.935545167186689</v>
+        <v>1.152764974582055</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,19 +565,19 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.2222258444194836</v>
+        <v>0.05518873892393117</v>
       </c>
       <c r="D5">
-        <v>0.03046488571516193</v>
+        <v>0.02238296291508135</v>
       </c>
       <c r="E5">
-        <v>0.177811636452752</v>
+        <v>0.3821733656368522</v>
       </c>
       <c r="F5">
-        <v>0.8401823622189042</v>
+        <v>0.4080389756950638</v>
       </c>
       <c r="G5">
-        <v>0.002446872963367254</v>
+        <v>0.0007488160343985657</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3464147563801134</v>
+        <v>1.006994982732778</v>
       </c>
       <c r="M5">
-        <v>8.476230920908563</v>
+        <v>24.79803446902395</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>2.963021456590127</v>
+        <v>1.092170453990548</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,19 +612,19 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.222672346454786</v>
+        <v>0.0546279035364563</v>
       </c>
       <c r="D6">
-        <v>0.03047608957329118</v>
+        <v>0.02220067497948719</v>
       </c>
       <c r="E6">
-        <v>0.1772451542262772</v>
+        <v>0.3788182695364952</v>
       </c>
       <c r="F6">
-        <v>0.8411940915783092</v>
+        <v>0.404642121627802</v>
       </c>
       <c r="G6">
-        <v>0.00244715172101112</v>
+        <v>0.000749373298581827</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3444503609382537</v>
+        <v>0.998525034017149</v>
       </c>
       <c r="M6">
-        <v>8.420976854278535</v>
+        <v>24.60189610969928</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>2.967670914928107</v>
+        <v>1.08264212008342</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,19 +659,19 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.2196135127385332</v>
+        <v>0.05882828743774837</v>
       </c>
       <c r="D7">
-        <v>0.03040227935974826</v>
+        <v>0.02350526187944624</v>
       </c>
       <c r="E7">
-        <v>0.1811965610982469</v>
+        <v>0.4024644639035415</v>
       </c>
       <c r="F7">
-        <v>0.8343102881222748</v>
+        <v>0.4290607194958866</v>
       </c>
       <c r="G7">
-        <v>0.002445231360027623</v>
+        <v>0.0007454994981677716</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3581004804090639</v>
+        <v>1.057942135355205</v>
       </c>
       <c r="M7">
-        <v>8.80422767821608</v>
+        <v>25.97214340224554</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.935909870153353</v>
+        <v>1.151910794108431</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.2071299489273457</v>
+        <v>0.08667102492065482</v>
       </c>
       <c r="D8">
-        <v>0.03017605889399277</v>
+        <v>0.03046705082513057</v>
       </c>
       <c r="E8">
-        <v>0.1991274710974551</v>
+        <v>0.5179159597727505</v>
       </c>
       <c r="F8">
-        <v>0.8074148935545153</v>
+        <v>0.5616159366123057</v>
       </c>
       <c r="G8">
-        <v>0.002437114921382603</v>
+        <v>0.0007281333318783213</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.4187297282005602</v>
+        <v>1.339734196247548</v>
       </c>
       <c r="M8">
-        <v>10.48891995815609</v>
+        <v>32.29786122217968</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.808589618100143</v>
+        <v>1.550135942203184</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.1864471037822852</v>
+        <v>0.2009607204582764</v>
       </c>
       <c r="D9">
-        <v>0.0301061488650447</v>
+        <v>0.052054120665602</v>
       </c>
       <c r="E9">
-        <v>0.2362147887839399</v>
+        <v>0.8190161712427155</v>
       </c>
       <c r="F9">
-        <v>0.7676635705779802</v>
+        <v>0.9694676149636763</v>
       </c>
       <c r="G9">
-        <v>0.002422467520876508</v>
+        <v>0.0006911738668666113</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.5392741153589782</v>
+        <v>2.026156723125268</v>
       </c>
       <c r="M9">
-        <v>13.77205026641826</v>
+        <v>46.62359929584261</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>2.606821435530009</v>
+        <v>2.886510769820546</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,19 +800,19 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.1737126929135542</v>
+        <v>0.3782932175853801</v>
       </c>
       <c r="D10">
-        <v>0.03029882609312295</v>
+        <v>0.08058776878802121</v>
       </c>
       <c r="E10">
-        <v>0.2647913531924075</v>
+        <v>1.161527393613106</v>
       </c>
       <c r="F10">
-        <v>0.7468281424850289</v>
+        <v>1.477783411834324</v>
       </c>
       <c r="G10">
-        <v>0.002412462915595785</v>
+        <v>0.0006582703043804921</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.6291002719380572</v>
+        <v>2.749685326253683</v>
       </c>
       <c r="M10">
-        <v>16.17507416934058</v>
+        <v>60.25015199487353</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>2.489459369112552</v>
+        <v>4.660071872374402</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.1684873252146843</v>
+        <v>0.5195974287845928</v>
       </c>
       <c r="D11">
-        <v>0.03044327573518046</v>
+        <v>0.1018593017916771</v>
       </c>
       <c r="E11">
-        <v>0.2781170592833462</v>
+        <v>1.397525313644792</v>
       </c>
       <c r="F11">
-        <v>0.7392669193691432</v>
+        <v>1.83262418433668</v>
       </c>
       <c r="G11">
-        <v>0.00240807211309578</v>
+        <v>0.0006393593724375313</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.6703011496467184</v>
+        <v>3.224025618512371</v>
       </c>
       <c r="M11">
-        <v>17.26716896728499</v>
+        <v>68.45064482322863</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.443143952223352</v>
+        <v>5.940611116703224</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,19 +894,19 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.166593151532922</v>
+        <v>0.5944484611733145</v>
       </c>
       <c r="D12">
-        <v>0.03050647773449811</v>
+        <v>0.1128339145032129</v>
       </c>
       <c r="E12">
-        <v>0.2832132828241214</v>
+        <v>1.51532191621137</v>
       </c>
       <c r="F12">
-        <v>0.7366878144456166</v>
+        <v>2.008142159258966</v>
       </c>
       <c r="G12">
-        <v>0.002406432177266993</v>
+        <v>0.0006308115103477854</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.6859569797923086</v>
+        <v>3.45512716501969</v>
       </c>
       <c r="M12">
-        <v>17.68064036012788</v>
+        <v>72.25214474990946</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>2.426654246453353</v>
+        <v>6.584225826530599</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1669972867256462</v>
+        <v>0.576846661049764</v>
       </c>
       <c r="D13">
-        <v>0.03049248239945257</v>
+        <v>0.1102678098510097</v>
       </c>
       <c r="E13">
-        <v>0.2821134403621528</v>
+        <v>1.487974107051187</v>
       </c>
       <c r="F13">
-        <v>0.7372304945221941</v>
+        <v>1.967546615965844</v>
       </c>
       <c r="G13">
-        <v>0.002406784359039974</v>
+        <v>0.0006327482817263535</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.6825827288999733</v>
+        <v>3.401773420413434</v>
       </c>
       <c r="M13">
-        <v>17.59159432188426</v>
+        <v>71.38536491361617</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>2.430158432137517</v>
+        <v>6.434806826231465</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,19 +988,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1683297784115894</v>
+        <v>0.5251585155943062</v>
       </c>
       <c r="D14">
-        <v>0.03044830302690116</v>
+        <v>0.1026805579175161</v>
       </c>
       <c r="E14">
-        <v>0.2785353063080436</v>
+        <v>1.406419799773467</v>
       </c>
       <c r="F14">
-        <v>0.7390489901932398</v>
+        <v>1.845931914906643</v>
       </c>
       <c r="G14">
-        <v>0.002407936739853303</v>
+        <v>0.0006386948058639748</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.6715880513109767</v>
+        <v>3.241595876420973</v>
       </c>
       <c r="M14">
-        <v>17.30118670957518</v>
+        <v>68.74400294157545</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>2.44176612671032</v>
+        <v>5.989186629494753</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,19 +1035,19 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.1691570696538349</v>
+        <v>0.4970583236372974</v>
       </c>
       <c r="D15">
-        <v>0.03042235934307769</v>
+        <v>0.09852007430440324</v>
       </c>
       <c r="E15">
-        <v>0.276350213944923</v>
+        <v>1.361214730279329</v>
       </c>
       <c r="F15">
-        <v>0.7402001345816984</v>
+        <v>1.778221194852961</v>
       </c>
       <c r="G15">
-        <v>0.002408645562559739</v>
+        <v>0.0006421063595861155</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.6648606832648056</v>
+        <v>3.152082150989571</v>
       </c>
       <c r="M15">
-        <v>17.12329528124087</v>
+        <v>67.24188263867359</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>2.449013736126034</v>
+        <v>5.742424131571113</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,19 +1082,19 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.1740658528458852</v>
+        <v>0.3709428647162554</v>
       </c>
       <c r="D16">
-        <v>0.03029055708368844</v>
+        <v>0.07945545907354301</v>
       </c>
       <c r="E16">
-        <v>0.2639273156363799</v>
+        <v>1.148605595726039</v>
       </c>
       <c r="F16">
-        <v>0.7473615825069686</v>
+        <v>1.45833154222673</v>
       </c>
       <c r="G16">
-        <v>0.002412753066694756</v>
+        <v>0.0006593833064735463</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.6264149512862218</v>
+        <v>2.723215542799238</v>
       </c>
       <c r="M16">
-        <v>16.10368787223479</v>
+        <v>59.77611155576858</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>2.49263122242067</v>
+        <v>4.590755794257831</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,19 +1129,19 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.1772246579312196</v>
+        <v>0.3133807824146118</v>
       </c>
       <c r="D17">
-        <v>0.03022448052612248</v>
+        <v>0.07046982603837648</v>
       </c>
       <c r="E17">
-        <v>0.2563919853904082</v>
+        <v>1.044425062906605</v>
       </c>
       <c r="F17">
-        <v>0.7522518588908014</v>
+        <v>1.301880744618074</v>
       </c>
       <c r="G17">
-        <v>0.00241531375131959</v>
+        <v>0.0006686903891030971</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6029200694904944</v>
+        <v>2.507653394833255</v>
       </c>
       <c r="M17">
-        <v>15.47796999089621</v>
+        <v>55.84836198575556</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>2.521223131531883</v>
+        <v>4.037004294708538</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,19 +1176,19 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.1790947590317273</v>
+        <v>0.2849723349731192</v>
       </c>
       <c r="D18">
-        <v>0.03019180019878576</v>
+        <v>0.0659440499735382</v>
       </c>
       <c r="E18">
-        <v>0.2520883530783209</v>
+        <v>0.9907026610243932</v>
       </c>
       <c r="F18">
-        <v>0.7552445240276882</v>
+        <v>1.221660696984145</v>
       </c>
       <c r="G18">
-        <v>0.002416801699614188</v>
+        <v>0.0006737378924795092</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.5894379575112509</v>
+        <v>2.394894035046264</v>
       </c>
       <c r="M18">
-        <v>15.11796992133003</v>
+        <v>53.74504663101402</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>2.538332250869217</v>
+        <v>3.755852820052183</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,19 +1223,19 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.1797369994963702</v>
+        <v>0.2760108113078772</v>
       </c>
       <c r="D19">
-        <v>0.03018163991652756</v>
+        <v>0.06450145941869323</v>
       </c>
       <c r="E19">
-        <v>0.2506363603193194</v>
+        <v>0.9733776421080975</v>
       </c>
       <c r="F19">
-        <v>0.7562884323311607</v>
+        <v>1.195888715895379</v>
       </c>
       <c r="G19">
-        <v>0.002417308097231744</v>
+        <v>0.0006754043389834542</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.5848784057665455</v>
+        <v>2.35828088971428</v>
       </c>
       <c r="M19">
-        <v>14.99606024114087</v>
+        <v>53.05474632604751</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>2.544238158334679</v>
+        <v>3.665962465460694</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,19 +1270,19 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.1768828666826607</v>
+        <v>0.3189824144237008</v>
       </c>
       <c r="D20">
-        <v>0.03023096099195755</v>
+        <v>0.07135443892453708</v>
       </c>
       <c r="E20">
-        <v>0.2571909561466441</v>
+        <v>1.054820847338185</v>
       </c>
       <c r="F20">
-        <v>0.7517125998855789</v>
+        <v>1.317448795857629</v>
       </c>
       <c r="G20">
-        <v>0.002415039600271071</v>
+        <v>0.0006677338865901331</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.60541784033623</v>
+        <v>2.529342848463557</v>
       </c>
       <c r="M20">
-        <v>15.54458897165904</v>
+        <v>56.24905728764071</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>2.518110544372632</v>
+        <v>4.091794283502225</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,19 +1317,19 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.1679360743027445</v>
+        <v>0.5395267964331723</v>
       </c>
       <c r="D21">
-        <v>0.03046104607875577</v>
+        <v>0.1047978353416426</v>
       </c>
       <c r="E21">
-        <v>0.2795849058588686</v>
+        <v>1.429288151832282</v>
       </c>
       <c r="F21">
-        <v>0.7385070727795551</v>
+        <v>1.880109966373951</v>
       </c>
       <c r="G21">
-        <v>0.002407597642144289</v>
+        <v>0.000637000883514034</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.6748159463914192</v>
+        <v>3.286677259062117</v>
       </c>
       <c r="M21">
-        <v>17.38648807711735</v>
+        <v>69.49339868672956</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>2.438327939754686</v>
+        <v>6.114113132490701</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,19 +1364,19 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.1625831627753627</v>
+        <v>0.8709119610319789</v>
       </c>
       <c r="D22">
-        <v>0.03066114509451268</v>
+        <v>0.1522400288776851</v>
       </c>
       <c r="E22">
-        <v>0.294514100796448</v>
+        <v>1.924246500829973</v>
       </c>
       <c r="F22">
-        <v>0.7315369476222884</v>
+        <v>2.599361717529348</v>
       </c>
       <c r="G22">
-        <v>0.002402866447315217</v>
+        <v>0.0006048365525601618</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.720488826590298</v>
+        <v>4.234725761354895</v>
       </c>
       <c r="M22">
-        <v>18.58983955332758</v>
+        <v>84.21588752960429</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>2.392314787228486</v>
+        <v>8.795586109297687</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,19 +1411,19 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.1653938757212501</v>
+        <v>0.6536347426275668</v>
       </c>
       <c r="D23">
-        <v>0.03054968327973739</v>
+        <v>0.1214038620329987</v>
       </c>
       <c r="E23">
-        <v>0.2865181545308957</v>
+        <v>1.605892370402373</v>
       </c>
       <c r="F23">
-        <v>0.7351022316056088</v>
+        <v>2.141797167809301</v>
       </c>
       <c r="G23">
-        <v>0.002405379545398211</v>
+        <v>0.0006245913136500546</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.6960814799967352</v>
+        <v>3.630620527504419</v>
       </c>
       <c r="M23">
-        <v>17.9476032254251</v>
+        <v>75.05826178989503</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>2.416301296379231</v>
+        <v>7.078452170038418</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.177037222338555</v>
+        <v>0.3164358639785974</v>
       </c>
       <c r="D24">
-        <v>0.03022801466502045</v>
+        <v>0.07095258535140658</v>
       </c>
       <c r="E24">
-        <v>0.2568296528429101</v>
+        <v>1.050102408119471</v>
       </c>
       <c r="F24">
-        <v>0.7519558351881983</v>
+        <v>1.310381208787916</v>
       </c>
       <c r="G24">
-        <v>0.002415163494794522</v>
+        <v>0.0006681672305094948</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.604288519389371</v>
+        <v>2.51950355877176</v>
       </c>
       <c r="M24">
-        <v>15.51447136584699</v>
+        <v>56.06743835352552</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>2.519515656632478</v>
+        <v>4.066911786655169</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,19 +1505,19 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1916210728167584</v>
+        <v>0.1599158243708132</v>
       </c>
       <c r="D25">
-        <v>0.03008343431472582</v>
+        <v>0.04485075316877385</v>
       </c>
       <c r="E25">
-        <v>0.2259602292246967</v>
+        <v>0.7246028675212415</v>
       </c>
       <c r="F25">
-        <v>0.7769806611570615</v>
+        <v>0.8352156938918398</v>
       </c>
       <c r="G25">
-        <v>0.002426295880433836</v>
+        <v>0.0007017513497246519</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.5064617793764512</v>
+        <v>1.817106426518819</v>
       </c>
       <c r="M25">
-        <v>12.88574302349832</v>
+        <v>42.41362071447764</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>2.656105810697142</v>
+        <v>2.434756698897388</v>
       </c>
     </row>
   </sheetData>
